--- a/Unity/Assets/Config/Excel/Datas/Skill/SkillSearch.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/SkillSearch.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>己方队伍</t>
-  </si>
-  <si>
-    <t>植物</t>
   </si>
   <si>
     <t>英雄1000，建筑和士兵加速攻击</t>
@@ -1311,7 +1308,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1430,8 +1427,6 @@
       <c r="F4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
       <c r="I4" s="6">
         <v>99</v>
       </c>
@@ -1454,7 +1449,6 @@
       <c r="G5" s="2">
         <v>3001</v>
       </c>
-      <c r="H5" s="2"/>
       <c r="I5" s="6">
         <v>99</v>
       </c>
@@ -1477,7 +1471,6 @@
       <c r="G6" s="2">
         <v>3000</v>
       </c>
-      <c r="H6" s="2"/>
       <c r="I6" s="6">
         <v>99</v>
       </c>
@@ -1500,7 +1493,6 @@
       <c r="G7" s="2">
         <v>3300</v>
       </c>
-      <c r="H7" s="2"/>
       <c r="I7" s="6">
         <v>99</v>
       </c>
@@ -1520,8 +1512,6 @@
         <v>35</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
       <c r="I8" s="6">
         <v>1</v>
       </c>
@@ -1543,10 +1533,8 @@
         <v>38</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+        <v>29</v>
+      </c>
       <c r="I9" s="6">
         <v>99</v>
       </c>
@@ -1559,7 +1547,7 @@
         <v>10000201</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="6">
         <v>50000</v>
@@ -1568,10 +1556,8 @@
         <v>38</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>40</v>
+      </c>
       <c r="I10" s="6">
         <v>99</v>
       </c>
@@ -1584,15 +1570,13 @@
         <v>30000001</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
@@ -1601,15 +1585,13 @@
         <v>30010001</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
@@ -1618,7 +1600,7 @@
         <v>30010101</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
@@ -1630,7 +1612,6 @@
       <c r="G13" s="2">
         <v>3000</v>
       </c>
-      <c r="H13" s="2"/>
       <c r="I13" s="6">
         <v>99</v>
       </c>
@@ -1643,7 +1624,7 @@
         <v>31000001</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="6">
         <v>50000</v>
@@ -1652,8 +1633,6 @@
         <v>35</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
       <c r="I14" s="6">
         <v>1</v>
       </c>
@@ -1666,7 +1645,7 @@
         <v>31000002</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="6">
         <v>10000</v>
@@ -1675,8 +1654,6 @@
         <v>35</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
       <c r="I15" s="6">
         <v>3</v>
       </c>
@@ -1689,15 +1666,13 @@
         <v>32000001</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
@@ -1706,15 +1681,13 @@
         <v>33000001</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
@@ -1723,15 +1696,13 @@
         <v>39000001</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
@@ -1740,7 +1711,7 @@
         <v>40000001</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="6">
         <v>15000</v>
@@ -1749,8 +1720,6 @@
         <v>35</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
       <c r="I19" s="6">
         <v>1</v>
       </c>
@@ -1763,7 +1732,7 @@
         <v>40000101</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="6">
         <v>15000</v>
@@ -1772,8 +1741,6 @@
         <v>35</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
       <c r="I20" s="6">
         <v>99</v>
       </c>
@@ -1786,7 +1753,7 @@
         <v>40010001</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="6">
         <v>15000</v>
@@ -1795,8 +1762,6 @@
         <v>35</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
       <c r="I21" s="6">
         <v>1</v>
       </c>
@@ -1809,7 +1774,7 @@
         <v>40020001</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="6">
         <v>30000</v>
@@ -1818,8 +1783,6 @@
         <v>35</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
       <c r="I22" s="6">
         <v>1</v>
       </c>
@@ -1832,7 +1795,7 @@
         <v>40020002</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="6">
         <v>10000</v>
@@ -1841,8 +1804,6 @@
         <v>35</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
       <c r="I23" s="6">
         <v>1</v>
       </c>
@@ -1855,7 +1816,7 @@
         <v>41000001</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="6">
         <v>15000</v>
@@ -1864,8 +1825,6 @@
         <v>35</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
       <c r="I24" s="6">
         <v>1</v>
       </c>
@@ -1878,17 +1837,15 @@
         <v>49000001</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="6">
         <v>30000</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
       <c r="I25" s="6">
         <v>1</v>
       </c>
@@ -1901,11 +1858,11 @@
         <v>92000001</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -1915,15 +1872,13 @@
         <v>92010001</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
@@ -1932,11 +1887,10 @@
         <v>92020001</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>60</v>
+      </c>
       <c r="E28" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="2:9">
@@ -1944,9 +1898,8 @@
         <v>92020002</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>61</v>
+      </c>
       <c r="E29" s="11" t="s">
         <v>25</v>
       </c>
